--- a/source/registers_full.xlsx
+++ b/source/registers_full.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="460" windowWidth="13720" windowHeight="13040" tabRatio="500"/>
+    <workbookView xWindow="12780" yWindow="1900" windowWidth="13720" windowHeight="13040" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mentor" sheetId="3" r:id="rId1"/>
@@ -871,7 +871,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1516,8 +1516,8 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/registers_full.xlsx
+++ b/source/registers_full.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JaeyeonLee/MyGit/SOMAReport/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devholic/Desktop/git/SOMAReport/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="1900" windowWidth="13720" windowHeight="13040" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5560" yWindow="1900" windowWidth="20940" windowHeight="13040" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mentor" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="146">
   <si>
     <t>SW Maestro</t>
   </si>
@@ -56,42 +56,12 @@
     <t>010-0000-0000</t>
   </si>
   <si>
-    <t>mentor1@gmail.com</t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
     <t>웹</t>
   </si>
   <si>
-    <t>mentor0@gmail.com</t>
-  </si>
-  <si>
-    <t>mentor2@gmail.com</t>
-  </si>
-  <si>
-    <t>mentor3@gmail.com</t>
-  </si>
-  <si>
-    <t>mentor4@gmail.com</t>
-  </si>
-  <si>
-    <t>mentor5@gmail.com</t>
-  </si>
-  <si>
-    <t>mentor6@gmail.com</t>
-  </si>
-  <si>
-    <t>mentor7@gmail.com</t>
-  </si>
-  <si>
-    <t>mentor8@gmail.com</t>
-  </si>
-  <si>
-    <t>mentor9@gmail.com</t>
-  </si>
-  <si>
     <t>010-0000-0001</t>
   </si>
   <si>
@@ -119,45 +89,12 @@
     <t>010-0000-0009</t>
   </si>
   <si>
-    <t>어딘가</t>
-  </si>
-  <si>
     <t>모바일</t>
   </si>
   <si>
     <t>임베디드</t>
   </si>
   <si>
-    <t>010-000-0000</t>
-  </si>
-  <si>
-    <t>010-000-0001</t>
-  </si>
-  <si>
-    <t>010-000-0002</t>
-  </si>
-  <si>
-    <t>010-000-0003</t>
-  </si>
-  <si>
-    <t>010-000-0004</t>
-  </si>
-  <si>
-    <t>010-000-0005</t>
-  </si>
-  <si>
-    <t>010-000-0006</t>
-  </si>
-  <si>
-    <t>010-000-0007</t>
-  </si>
-  <si>
-    <t>010-000-0008</t>
-  </si>
-  <si>
-    <t>010-000-0009</t>
-  </si>
-  <si>
     <t>단계</t>
   </si>
   <si>
@@ -191,15 +128,6 @@
     <t>mentee08@gmail.com</t>
   </si>
   <si>
-    <t>mentee00@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee01@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee02@gmail.com</t>
-  </si>
-  <si>
     <t>mentee03@gmail.com</t>
   </si>
   <si>
@@ -236,72 +164,6 @@
     <t>mentee17@gmail.com</t>
   </si>
   <si>
-    <t>mentee18@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee19@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee20@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee21@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee22@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee23@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee24@gmail.com</t>
-  </si>
-  <si>
-    <t>010-000-0010</t>
-  </si>
-  <si>
-    <t>010-000-0011</t>
-  </si>
-  <si>
-    <t>010-000-0012</t>
-  </si>
-  <si>
-    <t>010-000-0013</t>
-  </si>
-  <si>
-    <t>010-000-0014</t>
-  </si>
-  <si>
-    <t>010-000-0015</t>
-  </si>
-  <si>
-    <t>010-000-0016</t>
-  </si>
-  <si>
-    <t>010-000-0017</t>
-  </si>
-  <si>
-    <t>010-000-0018</t>
-  </si>
-  <si>
-    <t>010-000-0019</t>
-  </si>
-  <si>
-    <t>010-000-0020</t>
-  </si>
-  <si>
-    <t>010-000-0021</t>
-  </si>
-  <si>
-    <t>010-000-0022</t>
-  </si>
-  <si>
-    <t>010-000-0023</t>
-  </si>
-  <si>
-    <t>010-000-0024</t>
-  </si>
-  <si>
     <t>web</t>
   </si>
   <si>
@@ -311,157 +173,298 @@
     <t>Regular</t>
   </si>
   <si>
-    <t>김멘티</t>
-  </si>
-  <si>
-    <t>이멘티</t>
-  </si>
-  <si>
-    <t>박멘티</t>
-  </si>
-  <si>
-    <t>유멘티</t>
-  </si>
-  <si>
-    <t>최멘티</t>
-  </si>
-  <si>
-    <t>민멘티</t>
-  </si>
-  <si>
-    <t>강멘티</t>
-  </si>
-  <si>
-    <t>오멘티</t>
-  </si>
-  <si>
-    <t>서멘티</t>
-  </si>
-  <si>
-    <t>윤멘티</t>
-  </si>
-  <si>
-    <t>조멘티</t>
-  </si>
-  <si>
-    <t>홍멘티</t>
-  </si>
-  <si>
-    <t>양멘티</t>
-  </si>
-  <si>
-    <t>연멘티</t>
-  </si>
-  <si>
-    <t>성멘티</t>
-  </si>
-  <si>
-    <t>마멘티</t>
-  </si>
-  <si>
-    <t>고멘티</t>
-  </si>
-  <si>
-    <t>남멘티</t>
-  </si>
-  <si>
-    <t>신멘티</t>
-  </si>
-  <si>
-    <t>배멘티</t>
-  </si>
-  <si>
-    <t>장멘티</t>
-  </si>
-  <si>
-    <t>한멘티</t>
-  </si>
-  <si>
-    <t>육멘티</t>
-  </si>
-  <si>
-    <t>류멘티</t>
-  </si>
-  <si>
-    <t>손멘티</t>
-  </si>
-  <si>
-    <t>김멘토</t>
-  </si>
-  <si>
-    <t>강멘토</t>
-  </si>
-  <si>
-    <t>민멘토</t>
-  </si>
-  <si>
-    <t>이멘토</t>
-  </si>
-  <si>
-    <t>최멘토</t>
-  </si>
-  <si>
-    <t>박멘토</t>
-  </si>
-  <si>
-    <t>장멘토</t>
-  </si>
-  <si>
-    <t>조멘토</t>
-  </si>
-  <si>
-    <t>남멘토</t>
-  </si>
-  <si>
-    <t>신멘토</t>
-  </si>
-  <si>
-    <t>김멘토의프로젝트 1단계 1차</t>
-  </si>
-  <si>
-    <t>강멘토의프로젝트 1단계 1차</t>
-  </si>
-  <si>
-    <t>민멘토의프로젝트 1단계 1차</t>
-  </si>
-  <si>
-    <t>이멘토의프로젝트 1단계 1차</t>
-  </si>
-  <si>
-    <t>최멘토의프로젝트 1단계 1차</t>
-  </si>
-  <si>
-    <t>박멘토의프로젝트 1단계 1차</t>
-  </si>
-  <si>
-    <t>장멘토의프로젝트 1단계 1차</t>
-  </si>
-  <si>
-    <t>조멘토의프로젝트 1단계 1차</t>
-  </si>
-  <si>
-    <t>김멘토의프로젝트 1단계 2차</t>
-  </si>
-  <si>
-    <t>강멘토의프로젝트 1단계 2차</t>
-  </si>
-  <si>
-    <t>민멘토의프로젝트 1단계 2차</t>
-  </si>
-  <si>
-    <t>이멘토의프로젝트 1단계 2차</t>
-  </si>
-  <si>
-    <t>최멘토의프로젝트 1단계 2차</t>
-  </si>
-  <si>
-    <t>박멘토의프로젝트 1단계 2차</t>
-  </si>
-  <si>
-    <t>장멘토의프로젝트 1단계 2차</t>
-  </si>
-  <si>
-    <t>조멘토의프로젝트 1단계 2차</t>
+    <t>강성훈</t>
+  </si>
+  <si>
+    <t>민종현</t>
+  </si>
+  <si>
+    <t>이재연</t>
+  </si>
+  <si>
+    <t>김승철</t>
+  </si>
+  <si>
+    <t>박유림</t>
+  </si>
+  <si>
+    <t>이동준</t>
+  </si>
+  <si>
+    <t>권순조</t>
+  </si>
+  <si>
+    <t>안범진</t>
+  </si>
+  <si>
+    <t>김철용</t>
+  </si>
+  <si>
+    <t>장초롱</t>
+  </si>
+  <si>
+    <t>나석주</t>
+  </si>
+  <si>
+    <t>최관호</t>
+  </si>
+  <si>
+    <t>정호권</t>
+  </si>
+  <si>
+    <t>함치헌</t>
+  </si>
+  <si>
+    <t>박세원</t>
+  </si>
+  <si>
+    <t>이제우</t>
+  </si>
+  <si>
+    <t>한만종</t>
+  </si>
+  <si>
+    <t>조경민</t>
+  </si>
+  <si>
+    <t>devholic@plusquare.com</t>
+  </si>
+  <si>
+    <t>alswhdgus10@gmail.com</t>
+  </si>
+  <si>
+    <t>beijing@gmail.com</t>
+  </si>
+  <si>
+    <t>김태완</t>
+  </si>
+  <si>
+    <t>오라클</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>허종오</t>
+  </si>
+  <si>
+    <t>SOMA Report</t>
+  </si>
+  <si>
+    <t>스마트TV용 애플리케이션 개발</t>
+  </si>
+  <si>
+    <t>손영수</t>
+  </si>
+  <si>
+    <t>고재관</t>
+  </si>
+  <si>
+    <t>서우석</t>
+  </si>
+  <si>
+    <t>NHN NEXT</t>
+  </si>
+  <si>
+    <t>요기요</t>
+  </si>
+  <si>
+    <t>(주) 세완</t>
+  </si>
+  <si>
+    <t>김종광</t>
+  </si>
+  <si>
+    <t>(주) 종광</t>
+  </si>
+  <si>
+    <t>한대희</t>
+  </si>
+  <si>
+    <t>김성용</t>
+  </si>
+  <si>
+    <t>이노스파크</t>
+  </si>
+  <si>
+    <t>박병용</t>
+  </si>
+  <si>
+    <t>프리랜서</t>
+  </si>
+  <si>
+    <t>강한</t>
+  </si>
+  <si>
+    <t>고려대 랩</t>
+  </si>
+  <si>
+    <t>김성민</t>
+  </si>
+  <si>
+    <t>몰랑</t>
+  </si>
+  <si>
+    <t>강성희</t>
+  </si>
+  <si>
+    <t>NAVER D2</t>
+  </si>
+  <si>
+    <t>김동현A</t>
+  </si>
+  <si>
+    <t>넷마블</t>
+  </si>
+  <si>
+    <t>010-0000-0010</t>
+  </si>
+  <si>
+    <t>010-0000-0011</t>
+  </si>
+  <si>
+    <t>010-0000-0012</t>
+  </si>
+  <si>
+    <t>taewanme@gmail.com</t>
+  </si>
+  <si>
+    <t>ohoh@gmail.com</t>
+  </si>
+  <si>
+    <t>young@gmail.com</t>
+  </si>
+  <si>
+    <t>seok@gmail.com</t>
+  </si>
+  <si>
+    <t>golang@gmail.com</t>
+  </si>
+  <si>
+    <t>jongkwang@jongkwang.com</t>
+  </si>
+  <si>
+    <t>he@gmail.com</t>
+  </si>
+  <si>
+    <t>yong@gmail.com</t>
+  </si>
+  <si>
+    <t>pyong@gmail.com</t>
+  </si>
+  <si>
+    <t>strong@river.com</t>
+  </si>
+  <si>
+    <t>min@gmail.com</t>
+  </si>
+  <si>
+    <t>apple@lover.com</t>
+  </si>
+  <si>
+    <t>net@marble.com</t>
+  </si>
+  <si>
+    <t>보안</t>
+  </si>
+  <si>
+    <t>게임</t>
+  </si>
+  <si>
+    <t>010-0000-0013</t>
+  </si>
+  <si>
+    <t>010-0000-0014</t>
+  </si>
+  <si>
+    <t>010-0000-0015</t>
+  </si>
+  <si>
+    <t>010-0000-0016</t>
+  </si>
+  <si>
+    <t>010-0000-0017</t>
+  </si>
+  <si>
+    <t>010-6399-0954</t>
+  </si>
+  <si>
+    <t>Havard Univ.</t>
+  </si>
+  <si>
+    <t>부경대학교</t>
+  </si>
+  <si>
+    <t>인하대학교</t>
+  </si>
+  <si>
+    <t>인천대학교</t>
+  </si>
+  <si>
+    <t>숭실대학교</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>KAIST</t>
+  </si>
+  <si>
+    <t>연세대학교</t>
+  </si>
+  <si>
+    <t>한양대학교</t>
+  </si>
+  <si>
+    <t>건국대학교</t>
+  </si>
+  <si>
+    <t>세종대학교</t>
+  </si>
+  <si>
+    <t>동경대학교</t>
+  </si>
+  <si>
+    <t>제주대학교</t>
+  </si>
+  <si>
+    <t>칭화대학교</t>
+  </si>
+  <si>
+    <t>경북대학교</t>
+  </si>
+  <si>
+    <t>전남대학교</t>
+  </si>
+  <si>
+    <t>한성대학교</t>
+  </si>
+  <si>
+    <t>010-0000-4229</t>
+  </si>
+  <si>
+    <t>010-0000-8243</t>
+  </si>
+  <si>
+    <t>모바일 자동화 테스팅</t>
+  </si>
+  <si>
+    <t>Homedoc</t>
+  </si>
+  <si>
+    <t>KINECT</t>
+  </si>
+  <si>
+    <t>김상현</t>
+  </si>
+  <si>
+    <t>이화여자대학교</t>
+  </si>
+  <si>
+    <t>010-0000-0018</t>
+  </si>
+  <si>
+    <t>kim@ewha.edu</t>
   </si>
 </sst>
 </file>
@@ -568,13 +571,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -582,10 +586,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
@@ -869,10 +875,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,180 +928,246 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
+        <v>69</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
+        <v>75</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
+        <v>77</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
+        <v>81</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
+        <v>83</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
+        <v>84</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
+        <v>86</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
+        <v>88</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B15" r:id="rId8"/>
+    <hyperlink ref="B16" r:id="rId9"/>
+    <hyperlink ref="B17" r:id="rId10"/>
+    <hyperlink ref="B18" r:id="rId11"/>
+    <hyperlink ref="B19" r:id="rId12"/>
+    <hyperlink ref="B20" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1103,10 +1175,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:D32"/>
+  <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1157,355 +1229,292 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
+        <v>142</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B25" r:id="rId3"/>
+    <hyperlink ref="B24" r:id="rId4"/>
+    <hyperlink ref="B23" r:id="rId5"/>
+    <hyperlink ref="B22" r:id="rId6"/>
+    <hyperlink ref="B21" r:id="rId7"/>
+    <hyperlink ref="B20" r:id="rId8"/>
+    <hyperlink ref="B19" r:id="rId9"/>
+    <hyperlink ref="B18" r:id="rId10"/>
+    <hyperlink ref="B17" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
+    <hyperlink ref="B13" r:id="rId15"/>
+    <hyperlink ref="B12" r:id="rId16"/>
+    <hyperlink ref="B11" r:id="rId17"/>
+    <hyperlink ref="B10" r:id="rId18"/>
+    <hyperlink ref="B26" r:id="rId19"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1514,10 +1523,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1549,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1548,7 +1557,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1556,19 +1565,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1576,189 +1585,48 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1769,10 +1637,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1801,7 +1669,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -1809,7 +1677,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
@@ -1817,19 +1685,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1837,189 +1705,71 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/source/registers_full.xlsx
+++ b/source/registers_full.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devholic/Desktop/git/SOMAReport/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JaeyeonLee/MyGit/SOMAReport/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1900" windowWidth="20940" windowHeight="13040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4660" yWindow="1900" windowWidth="20940" windowHeight="13040" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mentor" sheetId="3" r:id="rId1"/>
@@ -410,9 +410,6 @@
     <t>KAIST</t>
   </si>
   <si>
-    <t>연세대학교</t>
-  </si>
-  <si>
     <t>한양대학교</t>
   </si>
   <si>
@@ -465,6 +462,9 @@
   </si>
   <si>
     <t>kim@ewha.edu</t>
+  </si>
+  <si>
+    <t>서울대학교</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1177,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,7 +1249,7 @@
         <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
         <v>120</v>
@@ -1263,10 +1263,10 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1280,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1294,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1308,7 +1308,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1392,7 +1392,7 @@
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1406,7 +1406,7 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1420,7 +1420,7 @@
         <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1434,7 +1434,7 @@
         <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1448,7 +1448,7 @@
         <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1462,7 +1462,7 @@
         <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,16 +1481,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" t="s">
         <v>142</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1711,7 +1711,7 @@
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1734,7 +1734,7 @@
         <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1757,7 +1757,7 @@
         <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>

--- a/source/registers_full.xlsx
+++ b/source/registers_full.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1900" windowWidth="20940" windowHeight="13040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="15600" yWindow="2500" windowWidth="10000" windowHeight="12440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mentor" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
   <si>
     <t>SW Maestro</t>
   </si>
@@ -462,9 +462,6 @@
   </si>
   <si>
     <t>kim@ewha.edu</t>
-  </si>
-  <si>
-    <t>서울대학교</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1263,7 @@
         <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">

--- a/source/registers_full.xlsx
+++ b/source/registers_full.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="2500" windowWidth="10000" windowHeight="12440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mentor" sheetId="3" r:id="rId1"/>
@@ -233,9 +233,6 @@
     <t>alswhdgus10@gmail.com</t>
   </si>
   <si>
-    <t>beijing@gmail.com</t>
-  </si>
-  <si>
     <t>김태완</t>
   </si>
   <si>
@@ -462,6 +459,9 @@
   </si>
   <si>
     <t>kim@ewha.edu</t>
+  </si>
+  <si>
+    <t>lalala@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -930,16 +930,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -947,16 +947,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -964,16 +964,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -981,16 +981,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -998,16 +998,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1015,16 +1015,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1032,16 +1032,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -1049,67 +1049,67 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
         <v>90</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>91</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
         <v>92</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
         <v>94</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1175,7 +1175,7 @@
   <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,10 +1232,10 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1246,10 +1246,10 @@
         <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,13 +1257,13 @@
         <v>50</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1277,7 +1277,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1291,7 +1291,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1319,7 +1319,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1333,7 +1333,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1361,7 +1361,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1372,10 +1372,10 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1386,10 +1386,10 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1400,10 +1400,10 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1414,10 +1414,10 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1428,10 +1428,10 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1442,10 +1442,10 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1456,10 +1456,10 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1470,24 +1470,24 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
         <v>141</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1585,10 +1585,10 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
         <v>45</v>
@@ -1608,10 +1608,10 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -1705,10 +1705,10 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1728,10 +1728,10 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1751,10 +1751,10 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
